--- a/example/openpyxl/example/example.xlsx
+++ b/example/openpyxl/example/example.xlsx
@@ -19,13 +19,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b val="1"/>
+      <sz val="26"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b val="1"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="24"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,8 +62,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -124,6 +141,66 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7905750" cy="1285875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7905750" cy="1285875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,3500 +517,3512 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="42" customWidth="1" min="1" max="1"/>
+    <col width="42" customWidth="1" min="2" max="2"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="42" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="5" max="5"/>
+    <col width="42" customWidth="1" min="6" max="6"/>
+    <col width="42" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="1" ht="29" customHeight="1"/>
+    <row r="2" ht="29" customHeight="1"/>
+    <row r="3" ht="29" customHeight="1"/>
+    <row r="4" ht="29" customHeight="1"/>
+    <row r="5" ht="29" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Seraphim PV Module Serial Numbers for Belectric GmbH under Contract No. DE-TRG-20201030</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="29" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Invoice No.: SS8810C25-TZ-1      BL No.: SHAHAML07203      Container No.: EGHU9593717      PV Module Quantity: 660 PCS/CTN</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Page 1/2</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="29" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700283</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700280</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700254</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700255</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700248</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700303</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700167</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="29" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700299</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700288</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700176</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700258</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700306</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700309</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700121</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="29" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700312</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700173</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700263</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700155</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700152</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700292</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="29" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700323</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700296</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700291</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700239</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700153</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700274</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700295</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="11" ht="29" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700308</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700293</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700267</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700287</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700172</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700182</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700272</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="29" customHeight="1">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700044</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700284</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700256</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700279</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700269</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700037</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700275</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="29" customHeight="1">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700045</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700055</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700042</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700054</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700043</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700036</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700053</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="29" customHeight="1">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700058</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700023</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700024</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700046</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700050</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700083</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700013</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="15" ht="29" customHeight="1">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700031</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700016</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700110</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700061</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700231</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700075</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700230</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="16" ht="29" customHeight="1">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700007</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700143</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700139</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700089</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700124</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700064</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700125</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="17" ht="29" customHeight="1">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700102</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700080</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700027</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700187</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700088</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700129</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700084</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="29" customHeight="1">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700071</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700127</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700150</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700096</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700109</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700105</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700047</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="19" ht="29" customHeight="1">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700101</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700098</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700100</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700099</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700135</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700115</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700223</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="20" ht="29" customHeight="1">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700225</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700006</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700229</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700227</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700160</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700215</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700158</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="21" ht="29" customHeight="1">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700192</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700017</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700193</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700386</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700032</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700028</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700222</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="22" ht="29" customHeight="1">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700103</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700221</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700233</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700404</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700390</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700394</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700408</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="23" ht="29" customHeight="1">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700385</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700210</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700393</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700205</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700424</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700425</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700457</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="24" ht="29" customHeight="1">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700402</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700289</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700354</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700326</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700327</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700346</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700337</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="25" ht="29" customHeight="1">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700372</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700439</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700348</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700371</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700445</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700232</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700434</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="26" ht="29" customHeight="1">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700200</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700455</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700420</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700448</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700405</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700458</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700195</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="27" ht="29" customHeight="1">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700426</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700411</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700453</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700141</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700079</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700040</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700286</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="28" ht="29" customHeight="1">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700428</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700035</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700151</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700748</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700543</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700480</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700472</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="29" ht="29" customHeight="1">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700521</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700540</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700488</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700474</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700509</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700503</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700432</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="30" ht="29" customHeight="1">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700446</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700450</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700315</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700489</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700355</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700317</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700571</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="31" ht="29" customHeight="1">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700334</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700325</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700329</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700338</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700259</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700273</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700429</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="32" ht="29" customHeight="1">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700462</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700467</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700463</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700464</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700452</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700482</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700468</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="33" ht="29" customHeight="1">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700416</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700483</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700535</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700526</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700517</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700534</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700539</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="34" ht="29" customHeight="1">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700516</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700530</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700529</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700533</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700514</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700460</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700511</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="35" ht="29" customHeight="1">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700456</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700547</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700449</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700313</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700351</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700500</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700318</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="36" ht="29" customHeight="1">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700333</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700556</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700549</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700499</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700552</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700342</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700322</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="37" ht="29" customHeight="1">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700242</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700171</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700213</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700189</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700094</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700194</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700188</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="38" ht="29" customHeight="1">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700264</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700163</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700159</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700162</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700251</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700077</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700107</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="39" ht="29" customHeight="1">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700301</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700268</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700253</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700072</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700014</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700068</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700111</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="40" ht="29" customHeight="1">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700132</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700148</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700112</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700138</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700145</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700149</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700298</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="41" ht="29" customHeight="1">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700209</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700169</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700019</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700060</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700057</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700056</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700197</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="42" ht="29" customHeight="1">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700184</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700300</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700310</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700335</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700336</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700331</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700305</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="43" ht="29" customHeight="1">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700345</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700278</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700265</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700361</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700527</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700496</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700477</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="44" ht="29" customHeight="1">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700475</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700485</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700341</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700339</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700557</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700522</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700451</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="45" ht="29" customHeight="1">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700366</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700415</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700481</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700461</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700708</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700752</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700709</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="46" ht="29" customHeight="1">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700501</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700649</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700749</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700762</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700699</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700585</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700607</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="47" ht="29" customHeight="1">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700660</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700760</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700707</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700747</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700727</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700735</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700701</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="48" ht="29" customHeight="1">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700664</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700721</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700643</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700713</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700714</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700706</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700698</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="49" ht="29" customHeight="1">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700718</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700722</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700765</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700696</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700786</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700795</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700593</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="50" ht="29" customHeight="1">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700812</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700587</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700801</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700630</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700753</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700640</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700803</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="51" ht="29" customHeight="1">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700682</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700794</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700621</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700675</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700719</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700808</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700805</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="52" ht="29" customHeight="1">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700624</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700768</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700712</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700778</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700716</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700613</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700590</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="53" ht="29" customHeight="1">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700685</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700618</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700637</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700781</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700612</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700717</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700641</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="54" ht="29" customHeight="1">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700782</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700737</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700730</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700669</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700796</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700554</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700584</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="55" ht="29" customHeight="1">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700603</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700586</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700558</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700553</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700555</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700582</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700564</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="56" ht="29" customHeight="1">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700560</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700569</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700546</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700565</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700551</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700589</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700742</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="57" ht="29" customHeight="1">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700965</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700563</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700939</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700773</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700944</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700931</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700932</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="58" ht="29" customHeight="1">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700926</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700949</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700715</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700705</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700940</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700923</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700974</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="59" ht="29" customHeight="1">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700777</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700936</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700764</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700957</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700763</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700952</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700761</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="60" ht="29" customHeight="1">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700943</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700937</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700925</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700946</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700951</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700930</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700955</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="61" ht="29" customHeight="1">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700963</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700945</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700917</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700906</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700918</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700953</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700900</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="62" ht="29" customHeight="1">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700971</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700938</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700935</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700929</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700895</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700674</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700666</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="63" ht="29" customHeight="1">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700759</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700616</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700620</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700670</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700655</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700659</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700733</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="64" ht="29" customHeight="1">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700671</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700711</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700725</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700775</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700724</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700769</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700772</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="65" ht="29" customHeight="1">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700757</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700788</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700784</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700789</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700770</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700750</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700739</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="66" ht="29" customHeight="1">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700755</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700797</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700754</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700933</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700934</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700968</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700914</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="67" ht="29" customHeight="1">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700235</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700178</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700175</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700078</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700282</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700048</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700512</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="68" ht="29" customHeight="1">
+      <c r="A68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700430</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700442</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700506</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700168</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700157</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700447</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700409</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="69" ht="29" customHeight="1">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700800</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700798</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700791</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700799</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700697</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700811</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700595</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="70" ht="29" customHeight="1">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700734</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700645</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700651</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700787</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700691</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700636</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700657</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="71" ht="29" customHeight="1">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700541</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700625</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700154</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700401</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700400</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700224</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700387</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="72" ht="29" customHeight="1">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700012</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700234</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700140</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700022</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700085</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700091</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700087</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="73" ht="29" customHeight="1">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700086</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700126</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700081</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700128</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700093</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700147</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700097</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="74" ht="29" customHeight="1">
+      <c r="A74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700090</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700092</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700131</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700059</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700304</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700041</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700166</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="75" ht="29" customHeight="1">
+      <c r="A75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700244</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700266</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700281</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700118</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701952</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701953</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700924</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="76" ht="29" customHeight="1">
+      <c r="A76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701954</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701961</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700656</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701989</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701944</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701943</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701893</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="77" ht="29" customHeight="1">
+      <c r="A77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701892</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701894</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700069</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700672</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700217</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700665</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700676</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="78" ht="29" customHeight="1">
+      <c r="A78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700644</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700693</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700785</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700740</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700729</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700756</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700732</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="79" ht="29" customHeight="1">
+      <c r="A79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700767</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700673</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700654</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700646</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700608</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700648</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702001</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="80" ht="29" customHeight="1">
+      <c r="A80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700406</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701983</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701750</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701958</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702010</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702004</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702009</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="81" ht="29" customHeight="1">
+      <c r="A81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702000</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701971</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701740</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701751</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701982</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701987</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701721</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="82" ht="29" customHeight="1">
+      <c r="A82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702018</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701986</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702006</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701722</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702016</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701764</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702040</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="83" ht="29" customHeight="1">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701758</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700633</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701942</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701981</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702026</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702017</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701896</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="84" ht="29" customHeight="1">
+      <c r="A84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700596</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700635</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700623</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700632</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700639</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700398</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700634</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="85" ht="29" customHeight="1">
+      <c r="A85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700690</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700615</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700679</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700610</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700688</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700667</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700631</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="86" ht="29" customHeight="1">
+      <c r="A86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700689</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700638</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700687</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700686</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700680</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700619</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700611</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="87" ht="29" customHeight="1">
+      <c r="A87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700588</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700592</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700605</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700602</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700609</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700617</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700627</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="88" ht="29" customHeight="1">
+      <c r="A88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700626</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700601</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700574</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701836</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701835</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701794</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701844</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="89" ht="29" customHeight="1">
+      <c r="A89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701782</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701847</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701789</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701790</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701800</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701797</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701848</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="90" ht="29" customHeight="1">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701868</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701865</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701841</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701877</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701791</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701876</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701842</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="91" ht="29" customHeight="1">
+      <c r="A91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701861</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701786</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701859</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701843</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701881</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701858</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701845</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="92" ht="29" customHeight="1">
+      <c r="A92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700580</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700572</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701763</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700746</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700723</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701162</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701202</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="93" ht="29" customHeight="1">
+      <c r="A93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701709</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701179</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701551</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701778</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701991</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701795</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701960</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="94" ht="29" customHeight="1">
+      <c r="A94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702015</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701587</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702047</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702080</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702081</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701803</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701839</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="95" ht="29" customHeight="1">
+      <c r="A95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701846</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701898</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701849</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701852</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701863</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701851</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701796</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="96" ht="29" customHeight="1">
+      <c r="A96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700421</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700525</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700465</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700202</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700504</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700947</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700702</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="97" ht="29" customHeight="1">
+      <c r="A97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701166</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701164</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702044</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701168</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701106</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701178</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701626</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="98" ht="29" customHeight="1">
+      <c r="A98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701151</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701138</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700703</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700977</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700562</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700942</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700790</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="99" ht="29" customHeight="1">
+      <c r="A99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700663</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700771</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700758</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701854</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701840</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701850</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700583</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="100" ht="29" customHeight="1">
+      <c r="A100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701798</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700683</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700575</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700678</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700604</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700573</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700566</t>
         </is>
@@ -3944,6 +4033,7 @@
     <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3960,3500 +4050,3512 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="42" customWidth="1" min="1" max="1"/>
+    <col width="42" customWidth="1" min="2" max="2"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="42" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="5" max="5"/>
+    <col width="42" customWidth="1" min="6" max="6"/>
+    <col width="42" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="1" ht="29" customHeight="1"/>
+    <row r="2" ht="29" customHeight="1"/>
+    <row r="3" ht="29" customHeight="1"/>
+    <row r="4" ht="29" customHeight="1"/>
+    <row r="5" ht="29" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Seraphim PV Module Serial Numbers for Belectric GmbH under Contract No. DE-TRG-20201030</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="29" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Invoice No.: SS8810C25-TZ-1      BL No.: SHAHAML07203      Container No.: FSCU7104900      PV Module Quantity: 660 PCS/CTN</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Page 2/2</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="29" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701086</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701498</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701495</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701500</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701103</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701447</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701517</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="29" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701441</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701526</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701524</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701487</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701518</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701182</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701112</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="29" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701206</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701203</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701101</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701204</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701192</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701096</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701213</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="29" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701177</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701219</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701210</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701190</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701223</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701188</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702002</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="11" ht="29" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701209</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701167</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701589</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701531</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701555</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701521</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702007</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="29" customHeight="1">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701507</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701990</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701962</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701747</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701482</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701856</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701525</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="29" customHeight="1">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701966</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701539</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701532</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701456</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701515</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701520</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701516</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="29" customHeight="1">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701820</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701771</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701812</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701761</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701493</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701770</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701816</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="15" ht="29" customHeight="1">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701122</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701547</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701208</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701768</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701289</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701480</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701295</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="16" ht="29" customHeight="1">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701475</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701260</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701701</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701638</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701696</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701705</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701299</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="17" ht="29" customHeight="1">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701284</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701810</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701648</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701267</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701297</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701283</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701543</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="29" customHeight="1">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701307</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701633</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701695</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701703</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701702</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701760</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701755</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="19" ht="29" customHeight="1">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701452</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701700</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701717</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701715</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701675</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701644</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701228</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="20" ht="29" customHeight="1">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701263</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701239</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701262</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701293</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701292</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701229</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701250</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="21" ht="29" customHeight="1">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701266</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701265</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701261</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701255</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701288</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701264</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701246</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="22" ht="29" customHeight="1">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701254</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701196</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701252</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701294</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700881</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700898</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701256</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="23" ht="29" customHeight="1">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701259</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700869</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700874</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701242</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701249</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701235</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701234</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="24" ht="29" customHeight="1">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701237</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700830</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700875</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700866</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700887</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700862</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700872</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="25" ht="29" customHeight="1">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700890</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701040</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700897</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700880</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700993</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700865</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701085</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="26" ht="29" customHeight="1">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701076</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700908</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700910</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700915</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700903</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700921</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700904</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="27" ht="29" customHeight="1">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700905</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700899</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700920</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700913</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700878</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700832</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700879</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="28" ht="29" customHeight="1">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700893</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700886</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700894</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700891</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700889</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700988</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701027</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="29" ht="29" customHeight="1">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700978</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700297</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701291</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700454</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700498</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700505</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700495</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="30" ht="29" customHeight="1">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700493</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700538</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700441</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701739</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700548</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700600</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701947</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="31" ht="29" customHeight="1">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700591</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700579</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701662</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700681</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701985</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702041</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701642</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="32" ht="29" customHeight="1">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701645</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701298</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701115</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701233</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701650</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701440</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701883</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="33" ht="29" customHeight="1">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701171</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701590</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701198</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701089</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701139</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701095</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701159</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="34" ht="29" customHeight="1">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701144</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701152</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701148</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701102</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701141</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701100</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701087</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="35" ht="29" customHeight="1">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701984</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701098</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701097</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701149</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701528</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701822</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701762</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="36" ht="29" customHeight="1">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701384</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701385</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701398</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701396</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701383</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701418</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G36" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701397</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="37" ht="29" customHeight="1">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701131</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701173</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701163</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701084</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701134</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701376</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G37" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701895</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="38" ht="29" customHeight="1">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701814</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701411</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701406</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701413</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701407</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701414</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G38" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701405</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="39" ht="29" customHeight="1">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701187</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701393</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700888</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701964</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700561</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701258</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G39" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700919</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="40" ht="29" customHeight="1">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701028</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701483</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701281</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701556</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701544</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701726</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G40" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701529</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="41" ht="29" customHeight="1">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701485</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701439</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700694</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701965</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701940</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700922</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G41" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700995</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="42" ht="29" customHeight="1">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701004</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700969</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701003</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700599</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700999</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700994</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G42" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700985</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="43" ht="29" customHeight="1">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701819</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700959</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700961</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700989</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700960</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700983</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G43" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701390</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="44" ht="29" customHeight="1">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701394</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701014</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700901</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700975</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701387</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701377</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G44" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701409</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="45" ht="29" customHeight="1">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701402</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701404</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701395</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701410</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701619</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701415</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G45" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701432</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="46" ht="29" customHeight="1">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701033</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701287</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701887</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700987</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701010</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701416</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701434</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="47" ht="29" customHeight="1">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701005</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700997</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700950</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700594</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700736</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700807</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700868</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="48" ht="29" customHeight="1">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700884</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701257</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701251</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701073</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701290</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701271</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701707</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="49" ht="29" customHeight="1">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701533</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701154</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701741</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701490</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701212</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701496</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G49" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701408</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="50" ht="29" customHeight="1">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701497</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701494</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701430</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700907</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701391</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701429</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G50" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701455</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="51" ht="29" customHeight="1">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701467</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701422</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701457</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701140</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701038</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701442</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G51" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701130</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="52" ht="29" customHeight="1">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701474</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701421</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701050</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701477</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701472</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701448</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701476</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="53" ht="29" customHeight="1">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701450</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701454</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701453</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700964</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701451</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701443</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G53" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701565</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="54" ht="29" customHeight="1">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701584</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700810</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700684</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700399</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700745</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700956</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G54" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700550</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="55" ht="29" customHeight="1">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700577</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700497</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700802</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700095</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700344</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700542</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G55" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700352</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="56" ht="29" customHeight="1">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700471</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700320</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700285</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700238</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700321</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700316</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G56" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700413</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="57" ht="29" customHeight="1">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700459</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700204</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700206</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700208</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700476</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700183</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G57" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700196</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="58" ht="29" customHeight="1">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700363</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700119</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700241</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701157</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701099</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700986</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G58" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701123</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="59" ht="29" customHeight="1">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701181</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701156</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701128</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701135</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701032</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701129</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G59" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700902</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="60" ht="29" customHeight="1">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701301</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701160</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701197</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701026</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701136</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701132</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G60" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701035</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="61" ht="29" customHeight="1">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701111</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701468</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701125</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701872</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700984</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701438</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G61" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701458</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="62" ht="29" customHeight="1">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700958</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701423</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701006</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701466</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701034</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700982</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G62" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700973</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="63" ht="29" customHeight="1">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701082</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701603</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701615</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701608</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701540</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701577</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G63" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701583</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="64" ht="29" customHeight="1">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700833</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701537</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700827</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701598</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701601</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700839</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G64" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701536</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="65" ht="29" customHeight="1">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701613</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701580</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701595</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701592</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701581</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701560</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G65" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701600</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="66" ht="29" customHeight="1">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701433</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701037</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701427</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701420</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701462</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700928</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G66" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701428</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="67" ht="29" customHeight="1">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701023</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701007</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701231</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700867</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700863</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701459</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G67" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700876</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="68" ht="29" customHeight="1">
+      <c r="A68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701769</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701001</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701541</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700870</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701607</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700840</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G68" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701596</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="69" ht="29" customHeight="1">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701563</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701110</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701597</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700841</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700858</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700836</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G69" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700990</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="70" ht="29" customHeight="1">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701757</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700845</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700823</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701133</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701444</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701114</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G70" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701488</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="71" ht="29" customHeight="1">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700820</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701479</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701657</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701359</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701425</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701566</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G71" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701305</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="72" ht="29" customHeight="1">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701362</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701693</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701706</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701656</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701660</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701361</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G72" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701634</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="73" ht="29" customHeight="1">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701357</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701276</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701360</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701353</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701351</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701381</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G73" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701366</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="74" ht="29" customHeight="1">
+      <c r="A74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701370</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701340</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701373</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700826</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700818</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700816</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G74" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700821</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="75" ht="29" customHeight="1">
+      <c r="A75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700804</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700491</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700817</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700848</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701484</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701697</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G75" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701492</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="76" ht="29" customHeight="1">
+      <c r="A76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701692</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701666</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701661</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701310</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701461</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700838</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G76" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701687</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="77" ht="29" customHeight="1">
+      <c r="A77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700559</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701446</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702176</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701445</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702211</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701513</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G77" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701481</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="78" ht="29" customHeight="1">
+      <c r="A78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701674</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701586</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701686</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701637</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701698</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701625</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G78" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701678</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="79" ht="29" customHeight="1">
+      <c r="A79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702220</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702212</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702236</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702238</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702224</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702204</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G79" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700704</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="80" ht="29" customHeight="1">
+      <c r="A80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700720</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700731</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700962</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700647</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700966</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700728</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G80" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700661</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="81" ht="29" customHeight="1">
+      <c r="A81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700774</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700941</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700653</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700642</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700741</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700948</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G81" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701956</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="82" ht="29" customHeight="1">
+      <c r="A82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701975</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701974</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701890</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701978</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701945</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701759</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G82" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700567</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="83" ht="29" customHeight="1">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700606</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702008</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701738</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701664</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701875</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700779</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G83" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701857</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="84" ht="29" customHeight="1">
+      <c r="A84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701736</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702449</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702316</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702433</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702454</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702328</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G84" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702456</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="85" ht="29" customHeight="1">
+      <c r="A85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702478</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702474</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702471</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702452</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702247</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702315</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G85" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702239</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="86" ht="29" customHeight="1">
+      <c r="A86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702255</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702301</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702431</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702376</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702448</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702398</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G86" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702473</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="87" ht="29" customHeight="1">
+      <c r="A87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702216</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702479</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702180</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701683</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702254</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702167</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G87" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702251</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="88" ht="29" customHeight="1">
+      <c r="A88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702256</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702225</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702227</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702207</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702390</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702184</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G88" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702278</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="89" ht="29" customHeight="1">
+      <c r="A89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702257</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702275</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702300</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702269</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702079</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702059</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G89" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702067</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="90" ht="29" customHeight="1">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702048</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702054</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702242</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702282</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702171</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702170</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G90" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702260</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="91" ht="29" customHeight="1">
+      <c r="A91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702179</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702194</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702169</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702178</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702143</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702199</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G91" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702157</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="92" ht="29" customHeight="1">
+      <c r="A92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702172</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702159</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702163</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702164</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702150</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702457</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G92" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701564</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="93" ht="29" customHeight="1">
+      <c r="A93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702393</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702195</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700813</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701278</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701348</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701677</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G93" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702240</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="94" ht="29" customHeight="1">
+      <c r="A94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702062</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702253</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702168</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702348</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702160</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702158</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G94" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702126</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="95" ht="29" customHeight="1">
+      <c r="A95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702141</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702145</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702113</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702127</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701641</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702148</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G95" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701464</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="96" ht="29" customHeight="1">
+      <c r="A96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702124</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302701694</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702155</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702156</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702147</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702162</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G96" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702387</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="97" ht="29" customHeight="1">
+      <c r="A97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700417</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700440</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302700437</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702408</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702346</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702189</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G97" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702332</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="98" ht="29" customHeight="1">
+      <c r="A98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702309</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702405</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702407</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702389</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702299</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702082</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G98" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702323</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="99" ht="29" customHeight="1">
+      <c r="A99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702330</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702243</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702250</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702343</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702264</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702334</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G99" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702291</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="100" ht="29" customHeight="1">
+      <c r="A100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702304</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702298</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702384</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702183</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702296</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702458</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G100" s="3" t="inlineStr">
         <is>
           <t>BM7672210302702187</t>
         </is>
@@ -7464,5 +7566,6 @@
     <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>